--- a/프로그래밍 수행평가.xlsx
+++ b/프로그래밍 수행평가.xlsx
@@ -754,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:O70"/>
+  <dimension ref="B1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P65" sqref="P65"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N58" sqref="N58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1987,7 +1987,7 @@
       </c>
     </row>
     <row r="48" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B49" s="23" t="s">
         <v>27</v>
       </c>
@@ -2004,7 +2004,7 @@
       <c r="M49" s="24"/>
       <c r="N49" s="25"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="39" t="s">
         <v>0</v>
       </c>
@@ -2045,7 +2045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B51" s="38" t="s">
         <v>1</v>
       </c>
@@ -2063,8 +2063,9 @@
       <c r="L51" s="43"/>
       <c r="M51" s="43"/>
       <c r="N51" s="44"/>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="P51"/>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B52" s="39" t="s">
         <v>2</v>
       </c>
@@ -2105,7 +2106,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B53" s="38" t="s">
         <v>3</v>
       </c>
@@ -2140,11 +2141,11 @@
         <v>7</v>
       </c>
       <c r="M53" s="3">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="N53" s="4"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="39" t="s">
         <v>4</v>
       </c>
@@ -2174,10 +2175,12 @@
       <c r="L54" s="41">
         <v>8</v>
       </c>
-      <c r="M54" s="41"/>
+      <c r="M54" s="41">
+        <v>8</v>
+      </c>
       <c r="N54" s="42"/>
     </row>
-    <row r="55" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="38" t="s">
         <v>5</v>
       </c>
@@ -2212,11 +2215,11 @@
         <v>3</v>
       </c>
       <c r="M55" s="3">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="N55" s="4"/>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="39" t="s">
         <v>6</v>
       </c>
@@ -2251,11 +2254,11 @@
         <v>10</v>
       </c>
       <c r="M56" s="41">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="N56" s="42"/>
     </row>
-    <row r="57" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="38" t="s">
         <v>7</v>
       </c>
@@ -2271,12 +2274,10 @@
       <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
-      <c r="M57" s="3">
-        <v>4</v>
-      </c>
+      <c r="M57" s="3"/>
       <c r="N57" s="4"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="39" t="s">
         <v>8</v>
       </c>
@@ -2311,11 +2312,13 @@
         <v>18</v>
       </c>
       <c r="M58" s="41">
-        <v>4</v>
-      </c>
-      <c r="N58" s="42"/>
-    </row>
-    <row r="59" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="N58" s="42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B59" s="38" t="s">
         <v>9</v>
       </c>
@@ -2352,9 +2355,11 @@
       <c r="M59" s="3">
         <v>4</v>
       </c>
-      <c r="N59" s="4"/>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="N59" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B60" s="39" t="s">
         <v>10</v>
       </c>
@@ -2389,11 +2394,13 @@
         <v>14</v>
       </c>
       <c r="M60" s="41">
-        <v>4</v>
-      </c>
-      <c r="N60" s="42"/>
-    </row>
-    <row r="61" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="N60" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B61" s="38" t="s">
         <v>11</v>
       </c>
@@ -2426,11 +2433,13 @@
         <v>15</v>
       </c>
       <c r="M61" s="3">
-        <v>4</v>
-      </c>
-      <c r="N61" s="4"/>
-    </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="N61" s="4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B62" s="39" t="s">
         <v>12</v>
       </c>
@@ -2465,11 +2474,13 @@
         <v>17</v>
       </c>
       <c r="M62" s="41">
-        <v>4</v>
-      </c>
-      <c r="N62" s="42"/>
-    </row>
-    <row r="63" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="N62" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B63" s="38" t="s">
         <v>13</v>
       </c>
@@ -2501,10 +2512,14 @@
       <c r="L63" s="3">
         <v>12</v>
       </c>
-      <c r="M63" s="3"/>
-      <c r="N63" s="4"/>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="M63" s="5">
+        <v>14</v>
+      </c>
+      <c r="N63" s="4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B64" s="39" t="s">
         <v>14</v>
       </c>
@@ -2538,8 +2553,12 @@
       <c r="L64" s="41">
         <v>13</v>
       </c>
-      <c r="M64" s="41"/>
-      <c r="N64" s="42"/>
+      <c r="M64" s="41">
+        <v>13</v>
+      </c>
+      <c r="N64" s="42">
+        <v>4</v>
+      </c>
     </row>
     <row r="65" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B65" s="38" t="s">
@@ -2575,8 +2594,12 @@
       <c r="L65" s="3">
         <v>1</v>
       </c>
-      <c r="M65" s="3"/>
-      <c r="N65" s="4"/>
+      <c r="M65" s="5">
+        <v>5</v>
+      </c>
+      <c r="N65" s="4">
+        <v>3</v>
+      </c>
     </row>
     <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="39" t="s">
@@ -2612,8 +2635,12 @@
       <c r="L66" s="41">
         <v>11</v>
       </c>
-      <c r="M66" s="41"/>
-      <c r="N66" s="42"/>
+      <c r="M66" s="41">
+        <v>2</v>
+      </c>
+      <c r="N66" s="42">
+        <v>2</v>
+      </c>
     </row>
     <row r="67" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B67" s="38" t="s">
@@ -2649,8 +2676,12 @@
       <c r="L67" s="3">
         <v>4</v>
       </c>
-      <c r="M67" s="3"/>
-      <c r="N67" s="4"/>
+      <c r="M67" s="5">
+        <v>3</v>
+      </c>
+      <c r="N67" s="4">
+        <v>9</v>
+      </c>
     </row>
     <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="39" t="s">
@@ -2686,8 +2717,12 @@
       <c r="L68" s="41">
         <v>19</v>
       </c>
-      <c r="M68" s="41"/>
-      <c r="N68" s="42"/>
+      <c r="M68" s="41">
+        <v>16</v>
+      </c>
+      <c r="N68" s="42">
+        <v>15</v>
+      </c>
     </row>
     <row r="69" spans="2:14" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B69" s="38" t="s">
@@ -2723,8 +2758,12 @@
       <c r="L69" s="3">
         <v>5</v>
       </c>
-      <c r="M69" s="3"/>
-      <c r="N69" s="4"/>
+      <c r="M69" s="5">
+        <v>15</v>
+      </c>
+      <c r="N69" s="4">
+        <v>14</v>
+      </c>
     </row>
     <row r="70" spans="2:14" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B70" s="40" t="s">
@@ -2760,8 +2799,12 @@
       <c r="L70" s="45">
         <v>16</v>
       </c>
-      <c r="M70" s="45"/>
-      <c r="N70" s="46"/>
+      <c r="M70" s="45">
+        <v>18</v>
+      </c>
+      <c r="N70" s="46">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">

--- a/프로그래밍 수행평가.xlsx
+++ b/프로그래밍 수행평가.xlsx
@@ -757,7 +757,7 @@
   <dimension ref="B1:P70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N58" sqref="N58"/>
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2143,7 +2143,9 @@
       <c r="M53" s="3">
         <v>11</v>
       </c>
-      <c r="N53" s="4"/>
+      <c r="N53" s="4">
+        <v>11</v>
+      </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B54" s="39" t="s">
@@ -2178,7 +2180,9 @@
       <c r="M54" s="41">
         <v>8</v>
       </c>
-      <c r="N54" s="42"/>
+      <c r="N54" s="42">
+        <v>8</v>
+      </c>
     </row>
     <row r="55" spans="2:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B55" s="38" t="s">
@@ -2217,7 +2221,9 @@
       <c r="M55" s="3">
         <v>7</v>
       </c>
-      <c r="N55" s="4"/>
+      <c r="N55" s="4">
+        <v>5</v>
+      </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B56" s="39" t="s">
@@ -2256,7 +2262,9 @@
       <c r="M56" s="41">
         <v>15</v>
       </c>
-      <c r="N56" s="42"/>
+      <c r="N56" s="42">
+        <v>12</v>
+      </c>
     </row>
     <row r="57" spans="2:16" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B57" s="38" t="s">

--- a/프로그래밍 수행평가.xlsx
+++ b/프로그래밍 수행평가.xlsx
@@ -332,7 +332,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -383,6 +383,15 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -402,15 +411,6 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -460,12 +460,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1">
@@ -757,7 +751,7 @@
   <dimension ref="B1:P70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -769,7 +763,7 @@
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B2" s="1"/>
-      <c r="C2" s="21">
+      <c r="C2" s="24">
         <v>44756</v>
       </c>
       <c r="D2" s="26"/>
@@ -828,12 +822,12 @@
       <c r="B5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="18"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="2:12" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
@@ -969,12 +963,12 @@
       <c r="B16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
     </row>
     <row r="17" spans="2:15" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B17" s="6" t="s">
@@ -1072,23 +1066,23 @@
     <row r="24" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="25" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="21">
+      <c r="C25" s="24">
         <v>44789</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21" t="s">
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
-      <c r="O25" s="22"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="25"/>
     </row>
     <row r="26" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B26" s="6" t="s">
@@ -1988,21 +1982,21 @@
     </row>
     <row r="48" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="49" spans="2:16" x14ac:dyDescent="0.3">
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="24"/>
-      <c r="H49" s="24"/>
-      <c r="I49" s="24"/>
-      <c r="J49" s="24"/>
-      <c r="K49" s="24"/>
-      <c r="L49" s="24"/>
-      <c r="M49" s="24"/>
-      <c r="N49" s="25"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="18"/>
+      <c r="L49" s="18"/>
+      <c r="M49" s="18"/>
+      <c r="N49" s="19"/>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B50" s="39" t="s">
@@ -2049,20 +2043,20 @@
       <c r="B51" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="43" t="s">
+      <c r="C51" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="43"/>
-      <c r="E51" s="43"/>
-      <c r="F51" s="43"/>
-      <c r="G51" s="43"/>
-      <c r="H51" s="43"/>
-      <c r="I51" s="43"/>
-      <c r="J51" s="43"/>
-      <c r="K51" s="43"/>
-      <c r="L51" s="43"/>
-      <c r="M51" s="43"/>
-      <c r="N51" s="44"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="22"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="22"/>
+      <c r="N51" s="23"/>
       <c r="P51"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.3">
@@ -2270,20 +2264,20 @@
       <c r="B57" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="4"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="22"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="22"/>
+      <c r="H57" s="22"/>
+      <c r="I57" s="22"/>
+      <c r="J57" s="22"/>
+      <c r="K57" s="22"/>
+      <c r="L57" s="22"/>
+      <c r="M57" s="22"/>
+      <c r="N57" s="23"/>
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B58" s="39" t="s">
@@ -2777,49 +2771,51 @@
       <c r="B70" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="45">
+      <c r="C70" s="43">
         <v>21</v>
       </c>
-      <c r="D70" s="45">
-        <v>14</v>
-      </c>
-      <c r="E70" s="45">
-        <v>15</v>
-      </c>
-      <c r="F70" s="45">
+      <c r="D70" s="43">
+        <v>14</v>
+      </c>
+      <c r="E70" s="43">
+        <v>15</v>
+      </c>
+      <c r="F70" s="43">
         <v>19</v>
       </c>
-      <c r="G70" s="45">
+      <c r="G70" s="43">
         <v>17</v>
       </c>
-      <c r="H70" s="45">
-        <v>9</v>
-      </c>
-      <c r="I70" s="45">
-        <v>11</v>
-      </c>
-      <c r="J70" s="45">
-        <v>15</v>
-      </c>
-      <c r="K70" s="45">
-        <v>15</v>
-      </c>
-      <c r="L70" s="45">
+      <c r="H70" s="43">
+        <v>9</v>
+      </c>
+      <c r="I70" s="43">
+        <v>11</v>
+      </c>
+      <c r="J70" s="43">
+        <v>15</v>
+      </c>
+      <c r="K70" s="43">
+        <v>15</v>
+      </c>
+      <c r="L70" s="43">
         <v>16</v>
       </c>
-      <c r="M70" s="45">
+      <c r="M70" s="43">
         <v>18</v>
       </c>
-      <c r="N70" s="46">
+      <c r="N70" s="44">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="C16:F16"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="I3:L3"/>
     <mergeCell ref="I4:L4"/>
+    <mergeCell ref="C57:N57"/>
+    <mergeCell ref="B49:N49"/>
     <mergeCell ref="C51:N51"/>
     <mergeCell ref="C5:F5"/>
   </mergeCells>
